--- a/アカウント登録_単体テスト.xlsx
+++ b/アカウント登録_単体テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9BA5E4-795D-45D9-9084-0C644B5CCD7B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8514E17A-9E55-44C6-AFDD-B89D14D384A0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="アカウント登録完了" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="160">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -258,17 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「10文字以下にしてください」の注意分の表示</t>
-  </si>
-  <si>
-    <t>「100文字以下にしてください」の注意分の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「7文字以下にしてください」の注意分の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期値は空欄</t>
   </si>
   <si>
@@ -829,70 +817,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.アカウント登録確認画面に遷移して確認</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.TOPページのアカウント登録を押す</t>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録画面の確認するを押す</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント登録確認画面の登録するを押す</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>同じメールアドレスで登録できないように設定されているか確認</t>
     <rPh sb="0" eb="1">
       <t>オナ</t>
@@ -922,16 +846,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>同じメールアドレスでは、登録できないようになる</t>
-    <rPh sb="0" eb="1">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.「名前（姓）」を未入力にする</t>
     <rPh sb="3" eb="5">
       <t>ナマエ</t>
@@ -1647,6 +1561,138 @@
     <t>「戻る」</t>
     <rPh sb="1" eb="2">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7文字で制御される</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10文字で制御される</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100文字で制御される</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにリダイレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、account-regist-confirm.php</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>をURLに直打ちする</t>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、account-regist.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直打ちする</t>
+    <rPh sb="0" eb="2">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードがハッシュ化されて登録されているか</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント登録完了画面に遷移して確認</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、account-regist-complete.php</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化されて登録</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.phpmyadminで確認</t>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じメールアドレスでは登録できない</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1743,7 +1789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1772,6 +1818,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1847,76 +1896,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2010,7 +1990,68 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2022,6 +2063,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2257,49 +2306,49 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A97:I100" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="18" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="31" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="25"/>
     <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E5A1AC5-72BD-4A39-A5BA-F2012FA95897}" name="テーブル35" displayName="テーブル35" ref="A44:I48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E5A1AC5-72BD-4A39-A5BA-F2012FA95897}" name="テーブル35" displayName="テーブル35" ref="A41:I45" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B4073CD8-5F0E-40D9-8114-4C537B27C148}" name="項目番号" headerRowDxfId="9" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{E9E099E9-0D35-44D7-93E4-4703AB560B91}" name="大項目" headerRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CDB1D4AE-F878-4BA9-BAF7-F36FAF4DCB03}" name="列3" headerRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{1720F283-6753-4675-9ADC-F4290B87F214}" name="確認内容" headerRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E75DA52F-2BC2-40A7-8495-D18E800E9B7B}" name="操作手順" headerRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{B4073CD8-5F0E-40D9-8114-4C537B27C148}" name="項目番号" headerRowDxfId="20" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E9E099E9-0D35-44D7-93E4-4703AB560B91}" name="大項目" headerRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{CDB1D4AE-F878-4BA9-BAF7-F36FAF4DCB03}" name="列3" headerRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{1720F283-6753-4675-9ADC-F4290B87F214}" name="確認内容" headerRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{E75DA52F-2BC2-40A7-8495-D18E800E9B7B}" name="操作手順" headerRowDxfId="15"/>
     <tableColumn id="6" xr3:uid="{011AD4A8-E98D-48F4-9358-1B2E6228556E}" name="期待値" headerRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{C44CD532-16A7-465A-8183-756809020628}" name="実施日" headerRowDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{60A4753E-7860-423B-8750-F53D11E1B14A}" name="実施結果" headerRowDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{8E72007A-F6B7-43BC-8CAF-E80D05998396}" name="備考" headerRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{C44CD532-16A7-465A-8183-756809020628}" name="実施日" headerRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{60A4753E-7860-423B-8750-F53D11E1B14A}" name="実施結果" headerRowDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{8E72007A-F6B7-43BC-8CAF-E80D05998396}" name="備考" headerRowDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8CCBE96E-14F3-44F6-B64E-31D8F99B235B}" name="テーブル357" displayName="テーブル357" ref="A9:I16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8CCBE96E-14F3-44F6-B64E-31D8F99B235B}" name="テーブル357" displayName="テーブル357" ref="A9:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{362C674A-7967-46F7-BB6F-C9217AAF8806}" name="項目番号" headerRowDxfId="0" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{E0A0D20B-6CAB-424D-9554-7B86E183B09F}" name="大項目" headerRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C9D230DE-96B2-4DA1-8164-02E982C48C7F}" name="列3" headerRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{AB564141-834A-4545-8F4B-718933CF42CB}" name="確認内容" headerRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{362C674A-7967-46F7-BB6F-C9217AAF8806}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E0A0D20B-6CAB-424D-9554-7B86E183B09F}" name="大項目" headerRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C9D230DE-96B2-4DA1-8164-02E982C48C7F}" name="列3" headerRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{AB564141-834A-4545-8F4B-718933CF42CB}" name="確認内容" headerRowDxfId="5"/>
     <tableColumn id="5" xr3:uid="{D13D2675-5F9C-4C0D-817C-17E63F4490C0}" name="操作手順" headerRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E014FC8E-13B6-492F-A529-A70A11DF4026}" name="期待値" headerRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{2BEA3A31-411E-41DA-8065-DEDF5EAE750E}" name="実施日" headerRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{0E4DFC99-C8B1-466B-9584-97A13ECBE5F5}" name="実施結果" headerRowDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{052FDFDC-1453-4DAB-B4EE-1B269B399263}" name="備考" headerRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E014FC8E-13B6-492F-A529-A70A11DF4026}" name="期待値" headerRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{2BEA3A31-411E-41DA-8065-DEDF5EAE750E}" name="実施日" headerRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0E4DFC99-C8B1-466B-9584-97A13ECBE5F5}" name="実施結果" headerRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{052FDFDC-1453-4DAB-B4EE-1B269B399263}" name="備考" headerRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2622,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A64" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2643,40 +2692,40 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2722,16 +2771,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2748,24 +2801,32 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2778,24 +2839,32 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2809,7 +2878,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -2819,13 +2888,17 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2843,7 +2916,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -2853,13 +2926,17 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2877,23 +2954,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2911,7 +2992,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -2921,13 +3002,17 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2945,7 +3030,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
@@ -2955,13 +3040,17 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2979,7 +3068,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -2989,13 +3078,17 @@
         <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3013,7 +3106,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -3023,13 +3116,17 @@
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3047,23 +3144,27 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3081,7 +3182,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
@@ -3091,13 +3192,17 @@
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3115,7 +3220,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
@@ -3125,13 +3230,17 @@
         <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3149,7 +3258,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
@@ -3159,13 +3268,17 @@
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3183,23 +3296,27 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3217,7 +3334,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
@@ -3227,13 +3344,17 @@
         <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3249,7 +3370,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
@@ -3259,13 +3380,17 @@
         <v>22</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="G40" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3281,23 +3406,27 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="G42" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3323,13 +3452,17 @@
         <v>25</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3355,13 +3488,17 @@
         <v>23</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3387,13 +3524,17 @@
         <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="G48" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3416,16 +3557,20 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3451,13 +3596,17 @@
         <v>24</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="G52" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3483,13 +3632,17 @@
         <v>27</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="G54" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3512,16 +3665,20 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G56" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3544,16 +3701,20 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G58" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3576,16 +3737,20 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G60" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3594,7 +3759,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3610,16 +3775,20 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G62" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3642,16 +3811,20 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G64" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3674,16 +3847,20 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="G66" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3706,16 +3883,20 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G68" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3738,16 +3919,20 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="G70" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3766,20 +3951,24 @@
         <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G72" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3788,7 +3977,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3800,20 +3989,24 @@
         <v>35</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G74" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3822,7 +4015,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3834,20 +4027,24 @@
         <v>36</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="G76" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3856,7 +4053,7 @@
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -3865,23 +4062,27 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G78" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3890,7 +4091,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -3899,23 +4100,27 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G80" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3924,7 +4129,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3933,23 +4138,27 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G82" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3958,7 +4167,7 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3967,23 +4176,27 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G84" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3992,7 +4205,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -4001,23 +4214,27 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G86" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4026,7 +4243,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4035,23 +4252,27 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G88" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4060,7 +4281,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4069,23 +4290,27 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="G90" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4103,23 +4328,27 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="G92" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4134,6 +4363,44 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="2">
+        <v>45</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4150,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAC509-E636-4BFE-BD39-D45C4E1E86E3}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="C10" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4171,45 +4438,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4241,23 +4508,27 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4266,7 +4537,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4275,23 +4546,27 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4300,7 +4575,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4309,23 +4584,27 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4334,7 +4613,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4343,23 +4622,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4368,7 +4651,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4377,23 +4660,27 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4402,7 +4689,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4411,23 +4698,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4436,7 +4727,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4445,23 +4736,27 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4470,7 +4765,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4479,23 +4774,27 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4504,7 +4803,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -4513,23 +4812,27 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4538,7 +4841,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4547,23 +4850,27 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4572,7 +4879,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4581,23 +4888,27 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4606,7 +4917,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -4615,23 +4926,27 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4640,7 +4955,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4649,23 +4964,27 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4674,7 +4993,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -4683,120 +5002,117 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="6"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="2">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
-        <v>59</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4812,10 +5128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4833,45 +5149,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4892,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7</v>
@@ -4903,23 +5219,27 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4928,7 +5248,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4937,23 +5257,27 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4962,7 +5286,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4971,23 +5295,27 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4996,12 +5324,154 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/アカウント登録_単体テスト.xlsx
+++ b/アカウント登録_単体テスト.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8514E17A-9E55-44C6-AFDD-B89D14D384A0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView minimized="1" xWindow="5130" yWindow="2580" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録" sheetId="1" r:id="rId1"/>
@@ -1789,7 +1789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1818,12 +1818,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2673,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4394,7 +4388,7 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F95" s="2"/>
@@ -5130,7 +5124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5385,7 +5379,7 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="11">
+      <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5410,7 +5404,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="11"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -5423,7 +5417,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="11"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
